--- a/bots/crawl_ch/output/bread_coop_2022-12-09.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-09.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12665,7 +12665,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14026,7 +14026,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14095,7 +14095,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14310,7 +14310,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14383,31 +14383,31 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E197" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -14416,12 +14416,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14431,7 +14431,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14441,42 +14441,46 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N197" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E198" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -14485,12 +14489,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14500,7 +14504,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14510,22 +14514,18 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14594,45 +14594,45 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>3235483</t>
+          <t>5791680</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
+          <t>Karma Mehrkornbrot mit Chia 250g</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-mehrkornbrot-mit-chia/p/5791680</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E200" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Délifrance</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>1.40/100g</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14652,56 +14652,60 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N200" t="inlineStr"/>
+          <t>Karma Mehrkornbrot mit Chia 250g 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>5791680</t>
+          <t>3235483</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Karma Mehrkornbrot mit Chia 250g</t>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-mehrkornbrot-mit-chia/p/5791680</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/delifrance-frischback-baguettes-mehrkorn-mini-4-stueck/p/3235483</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E201" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Délifrance</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>1.40/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14711,7 +14715,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -14721,22 +14725,18 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Karma Mehrkornbrot mit Chia 250g 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Délifrance Frischback Baguettes Mehrkorn mini 4 Stück 2.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14805,7 +14805,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14874,7 +14874,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15014,7 +15014,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15152,7 +15152,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15501,7 +15501,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15720,7 +15720,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16158,7 +16158,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16227,7 +16227,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16296,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16580,7 +16580,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -16929,45 +16929,45 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>1.38/100g</t>
+          <t>1.07/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16977,7 +16977,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16987,56 +16987,56 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.20 Schweizer Franken</t>
+          <t>Pasquier Pains facon Bretzel 30% Aktion 2.90 Schweizer Franken statt 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E234" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>1.07/100g</t>
+          <t>1.38/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17056,18 +17056,18 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 30% Aktion 2.90 Schweizer Franken statt 4.20 Schweizer Franken</t>
+          <t>Prix Garantie Yeah! 5 Stück 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17136,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17205,7 +17205,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17347,7 +17347,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17489,7 +17489,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17556,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17625,31 +17625,31 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6832128</t>
+          <t>5645960</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
+          <t>Free From Mehrkornbrötchen 6 Stück</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/free-from-mehrkornbroetchen-6-stueck/p/5645960</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E243" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -17658,12 +17658,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -17683,46 +17683,46 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt 1.85 Schweizer Franken</t>
+          <t>Free From Mehrkornbrötchen 6 Stück 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['frozen', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>5645960</t>
+          <t>6832128</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Free From Mehrkornbrötchen 6 Stück</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/free-from-mehrkornbroetchen-6-stueck/p/5645960</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -17731,12 +17731,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -17756,22 +17756,22 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Free From Mehrkornbrötchen 6 Stück 5.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt 1.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>['frozen', 'gluten_free', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17840,7 +17840,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18343,7 +18343,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18485,7 +18485,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18554,7 +18554,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18694,45 +18694,45 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6989304</t>
+          <t>3804246</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen</t>
+          <t>Schär Frischback Ciabatta glutenfrei</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E258" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18752,56 +18752,60 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr"/>
+          <t>Schär Frischback Ciabatta glutenfrei 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>3804246</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E259" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18811,7 +18815,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18821,60 +18825,56 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot glutenfrei 20% ab 2 Aktion 3.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>3726503</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Pasquier Schokobrötchen 16 Stück</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E260" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18884,7 +18884,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18894,18 +18894,18 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 20% ab 2 Aktion 3.90 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -18974,45 +18974,45 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>3726503</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E262" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19032,42 +19032,42 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>6989304</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>JaMaDu Jungle Cracker Randen</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19091,7 +19091,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19101,18 +19101,18 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19254,7 +19254,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19323,7 +19323,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19396,7 +19396,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19469,7 +19469,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19678,7 +19678,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19747,7 +19747,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -19818,45 +19818,45 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E274" t="n">
         <v>4.5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19866,7 +19866,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19876,56 +19876,56 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+          <t>Hug Zwieback Original 250G 20% ab 2 Aktion 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E275" t="n">
         <v>4.5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19935,7 +19935,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19945,18 +19945,18 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 20% ab 2 Aktion 4.20 Schweizer Franken</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20102,7 +20102,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20244,45 +20244,45 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E280" t="n">
         <v>4.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20292,7 +20292,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20302,60 +20302,60 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Buitoni Pizzateig rund Extra 20% ab 2 Aktion 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E281" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.90/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20365,7 +20365,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20375,60 +20375,60 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E282" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20438,7 +20438,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20448,46 +20448,42 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 20% ab 2 Aktion 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Panettone 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>4496109</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Betty Bossi Amaretti Guetzliteig</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-amaretti-guetzliteig/p/4496109</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -20496,12 +20492,12 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20511,7 +20507,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20521,56 +20517,60 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N283" t="inlineStr"/>
+          <t>Betty Bossi Amaretti Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>4496109</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Betty Bossi Amaretti Guetzliteig</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-amaretti-guetzliteig/p/4496109</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D284" t="n">
         <v>2</v>
       </c>
       <c r="E284" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>2.90/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20590,22 +20590,22 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Betty Bossi Amaretti Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Kastanie 20% ab 2 Aktion 4.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20887,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -20956,7 +20956,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21321,45 +21321,45 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>6738706</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E295" t="n">
         <v>4.5</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21369,7 +21369,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21379,42 +21379,46 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Dar-Vida extra fin Mais Taco 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N295" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>3454555</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Prix Garantie Gugelhopf</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -21423,12 +21427,12 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>0.41/100g</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21438,7 +21442,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21448,60 +21452,56 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Gugelhopf 1.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>3454555</t>
+          <t>6738706</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf</t>
+          <t>Dar-Vida extra fin Mais Taco</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-gugelhopf/p/3454555</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-extra-fin-mais-taco/p/6738706</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E297" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>0.41/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21511,7 +21511,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21521,18 +21521,18 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Prix Garantie Gugelhopf 1.65 Schweizer Franken</t>
+          <t>Dar-Vida extra fin Mais Taco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21605,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21674,7 +21674,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21747,7 +21747,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21889,7 +21889,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22104,7 +22104,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22242,7 +22242,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22457,7 +22457,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22526,7 +22526,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22668,7 +22668,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22741,7 +22741,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22814,7 +22814,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22887,7 +22887,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -22960,7 +22960,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23029,7 +23029,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23098,7 +23098,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23167,7 +23167,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23236,7 +23236,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23382,7 +23382,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23451,7 +23451,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23520,7 +23520,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23660,7 +23660,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23729,7 +23729,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23798,7 +23798,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -23867,45 +23867,45 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23915,7 +23915,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23925,60 +23925,60 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+          <t>Roland Knäckebrot Linsen-Protein 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D332" t="n">
         <v>12</v>
       </c>
       <c r="E332" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23988,7 +23988,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23998,56 +23998,60 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N332" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E333" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24057,7 +24061,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24067,22 +24071,18 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24151,7 +24151,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24220,7 +24220,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24293,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24362,31 +24362,31 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E338" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -24395,12 +24395,12 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24410,7 +24410,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24420,42 +24420,42 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -24464,12 +24464,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24479,7 +24479,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24489,18 +24489,18 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24569,7 +24569,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24636,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24709,7 +24709,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -24847,45 +24847,45 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D345" t="n">
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24905,56 +24905,60 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D346" t="n">
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24964,7 +24968,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24979,51 +24983,51 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25033,7 +25037,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25043,56 +25047,56 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25102,7 +25106,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25112,22 +25116,18 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 20% ab 2 Aktion 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25200,7 +25200,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25269,7 +25269,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25338,7 +25338,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25411,7 +25411,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25480,7 +25480,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25549,7 +25549,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25622,7 +25622,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25760,7 +25760,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25827,7 +25827,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25896,7 +25896,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -25965,7 +25965,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26034,7 +26034,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26103,7 +26103,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26172,7 +26172,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26241,7 +26241,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26310,7 +26310,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26379,7 +26379,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26448,7 +26448,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26521,7 +26521,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26590,7 +26590,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26659,7 +26659,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26728,7 +26728,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26795,7 +26795,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26868,7 +26868,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -26941,7 +26941,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27014,7 +27014,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27083,7 +27083,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27219,7 +27219,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27292,7 +27292,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27363,7 +27363,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27432,7 +27432,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27501,7 +27501,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27574,7 +27574,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27647,7 +27647,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27718,7 +27718,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27787,7 +27787,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -27860,43 +27860,45 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>3</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27906,7 +27908,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27916,12 +27918,12 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
@@ -27931,45 +27933,43 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
       <c r="E389" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27979,7 +27979,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27989,12 +27989,12 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr">
@@ -28004,7 +28004,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28077,7 +28077,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28150,7 +28150,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28221,7 +28221,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28290,7 +28290,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28359,7 +28359,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28428,7 +28428,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28497,7 +28497,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28566,7 +28566,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28633,7 +28633,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28700,7 +28700,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28769,7 +28769,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28836,7 +28836,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28907,7 +28907,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -28978,7 +28978,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -29047,45 +29047,43 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>3040977</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Dahli Marzipanstollen</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegetarisch/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
-        </is>
-      </c>
-      <c r="D405" t="n">
-        <v>34</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
       <c r="E405" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Dahli</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29095,7 +29093,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -29105,58 +29103,56 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegetarisch']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N405" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Dahli Marzipanstollen 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6569962</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Pasquier Croissants 8 Stück</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-croissants-8-stueck/p/6569962</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/ernaehrung/vegetarisch/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>34</v>
+      </c>
       <c r="E406" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>0.86/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29166,7 +29162,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29176,35 +29172,39 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegetarisch']</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Pasquier Croissants 8 Stück 30% Aktion 2.75 Schweizer Franken statt 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N406" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>3040977</t>
+          <t>6569962</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen</t>
+          <t>Pasquier Croissants 8 Stück</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-croissants-8-stueck/p/6569962</t>
         </is>
       </c>
       <c r="D407" t="inlineStr"/>
@@ -29213,17 +29213,17 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Dahli</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>0.86/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29233,7 +29233,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -29243,18 +29243,18 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen 2.70 Schweizer Franken</t>
+          <t>Pasquier Croissants 8 Stück 30% Aktion 2.75 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -29323,7 +29323,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -29392,7 +29392,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -29459,7 +29459,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -29532,7 +29532,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>
@@ -29605,7 +29605,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-09 12:56:23</t>
+          <t>2022-12-09 14:52:19</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2022-12-09.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-09.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Sandwichtoast 20 Scheiben 2.10 Schweizer Franken</t>
+          <t>Sandwichtoast 20 Scheiben - Online kein Bestand 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Silserbuttergipfel IP-Suisse 3.20 Schweizer Franken</t>
+          <t>Betty Bossi Frischback Silserbuttergipfel IP-Suisse - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 2.10 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm - Online kein Bestand 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Betty Bossi Bio Frischback Rustico Buttergipfel 3.50 Schweizer Franken</t>
+          <t>Betty Bossi Bio Frischback Rustico Buttergipfel - Online kein Bestand 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12665,7 +12665,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13452,7 +13452,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13521,7 +13521,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14026,7 +14026,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14095,7 +14095,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14310,7 +14310,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14525,7 +14525,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14594,7 +14594,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14736,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14805,7 +14805,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -14874,29 +14874,31 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>6734420</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Reiswaffeln Vollmilch-Kokos</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-vollmilch-kokos/p/6734420</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>2</v>
+      </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -14905,12 +14907,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>1.60/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14920,7 +14922,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14930,60 +14932,56 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Reiswaffeln Vollmilch-Kokos 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>3040623</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Hug Zwieback ohne Zucker 250g</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E205" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -14993,7 +14991,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15003,56 +15001,54 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+          <t>Hug Zwieback ohne Zucker 250g 20% ab 2 Aktion 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>3040623</t>
+          <t>6734420</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g</t>
+          <t>Reiswaffeln Vollmilch-Kokos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>24</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-vollmilch-kokos/p/6734420</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>1.60/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15062,7 +15058,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15072,18 +15068,22 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g 20% ab 2 Aktion 4.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr"/>
+          <t>Reiswaffeln Vollmilch-Kokos 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15152,7 +15152,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15432,45 +15432,45 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>4886676</t>
+          <t>6775685</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen</t>
+          <t>Mezeast Wraps 8 Stück</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-wraps-8-stueck/p/6775685</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E212" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -15490,56 +15490,60 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N212" t="inlineStr"/>
+          <t>Mezeast Wraps 8 Stück 30% ab 2 Stück Aktion 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>6775685</t>
+          <t>4886676</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mezeast Wraps 8 Stück</t>
+          <t>Dar-Vida Cracker Leinsamen</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-wraps-8-stueck/p/6775685</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15549,7 +15553,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15559,22 +15563,18 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>Mezeast Wraps 8 Stück 30% ab 2 Stück Aktion 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Cracker Leinsamen 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15720,7 +15720,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16158,7 +16158,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16227,7 +16227,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16296,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16580,7 +16580,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16718,7 +16718,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16787,7 +16787,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -16998,7 +16998,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17067,31 +17067,31 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>3504615</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E235" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -17100,12 +17100,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>1.08/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17115,7 +17115,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17125,42 +17125,42 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm 2.70 Schweizer Franken</t>
+          <t>Prix Garantie Erdbeer Roulade 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>3504615</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Betty Bossi Pastateig 2x16x56cm</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E236" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -17169,12 +17169,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>1.08/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17184,7 +17184,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17194,18 +17194,18 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.50 Schweizer Franken</t>
+          <t>Betty Bossi Pastateig 2x16x56cm 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17347,7 +17347,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17489,7 +17489,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17556,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17625,7 +17625,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17698,7 +17698,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17771,7 +17771,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17840,7 +17840,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18197,45 +18197,45 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E251" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18245,7 +18245,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18255,12 +18255,12 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18270,31 +18270,31 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>4234741</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Naturaplan Bio Vollkorn-Toast</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/naturaplan-bio-vollkorn-toast/p/4234741</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E252" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -18303,12 +18303,12 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18318,7 +18318,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18328,46 +18328,46 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Vollkorn-Toast 25% Aktion 3.30 Schweizer Franken statt 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>4234741</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorn-Toast</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/naturaplan-bio-vollkorn-toast/p/4234741</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E253" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18401,60 +18401,56 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Vollkorn-Toast 25% Aktion 3.30 Schweizer Franken statt 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D254" t="n">
+        <v>21</v>
+      </c>
+      <c r="E254" t="n">
         <v>4</v>
       </c>
-      <c r="E254" t="n">
-        <v>5</v>
-      </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18464,7 +18460,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18474,18 +18470,22 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr"/>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18554,7 +18554,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19043,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19112,7 +19112,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19185,45 +19185,45 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>4010866</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E265" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19243,56 +19243,56 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>4010866</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19312,56 +19312,60 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N266" t="inlineStr"/>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E267" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19371,7 +19375,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19381,22 +19385,18 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19469,7 +19469,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19678,7 +19678,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19747,7 +19747,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19818,7 +19818,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19887,7 +19887,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20102,7 +20102,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20244,7 +20244,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20317,7 +20317,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20390,7 +20390,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20459,7 +20459,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20532,7 +20532,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20605,7 +20605,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20887,7 +20887,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -20956,7 +20956,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21321,7 +21321,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21394,7 +21394,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21463,7 +21463,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21532,7 +21532,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21605,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21674,7 +21674,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21747,7 +21747,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21889,7 +21889,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22104,7 +22104,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22242,7 +22242,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22457,7 +22457,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22526,7 +22526,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22668,7 +22668,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22741,7 +22741,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22814,7 +22814,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22887,7 +22887,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -22960,7 +22960,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23029,7 +23029,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23098,7 +23098,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23167,7 +23167,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23236,7 +23236,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23309,7 +23309,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23382,7 +23382,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23451,7 +23451,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23520,7 +23520,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23660,7 +23660,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23729,7 +23729,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23798,7 +23798,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23867,7 +23867,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -23940,7 +23940,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24013,7 +24013,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24082,7 +24082,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24151,7 +24151,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24220,7 +24220,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24293,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24362,7 +24362,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24431,7 +24431,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24500,7 +24500,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24569,7 +24569,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24636,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24709,7 +24709,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -24989,7 +24989,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25058,7 +25058,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25127,7 +25127,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25200,7 +25200,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25269,7 +25269,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25338,7 +25338,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25411,7 +25411,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25480,7 +25480,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25549,7 +25549,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25622,7 +25622,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -25760,43 +25760,45 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>9</v>
+      </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25806,7 +25808,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25816,56 +25818,56 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E359" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25875,7 +25877,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25890,51 +25892,49 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
-        </is>
-      </c>
-      <c r="D360" t="n">
-        <v>17</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25944,7 +25944,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25954,56 +25954,56 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 20% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E361" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26013,7 +26013,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26028,13 +26028,13 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -26103,7 +26103,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -26172,7 +26172,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -26241,7 +26241,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -26310,31 +26310,31 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D366" t="n">
         <v>13</v>
       </c>
       <c r="E366" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -26343,12 +26343,12 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26368,46 +26368,46 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26427,7 +26427,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26437,56 +26437,60 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E368" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26496,7 +26500,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26506,60 +26510,56 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E369" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26569,7 +26569,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26579,35 +26579,39 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -26618,17 +26622,17 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26638,7 +26642,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26648,18 +26652,18 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 30% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Hug Tartelettes-Bödeli 175G 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -26728,43 +26732,45 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>8</v>
+      </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26774,7 +26780,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26784,56 +26790,54 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 30% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
-        </is>
-      </c>
-      <c r="D373" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="E373" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26843,7 +26847,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26853,22 +26857,18 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Kräuter 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -26941,7 +26941,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27014,7 +27014,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27083,7 +27083,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27152,7 +27152,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27219,7 +27219,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27292,7 +27292,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27363,7 +27363,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27432,7 +27432,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27501,7 +27501,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27574,7 +27574,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27637,7 +27637,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.90 Schweizer Franken</t>
+          <t>Suter Pâté vaudois - Online kein Bestand 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -27647,7 +27647,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27718,7 +27718,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27787,7 +27787,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27860,7 +27860,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -27933,7 +27933,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28004,7 +28004,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28077,7 +28077,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28150,7 +28150,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28221,7 +28221,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28290,7 +28290,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28359,7 +28359,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28428,7 +28428,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28497,7 +28497,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28566,7 +28566,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28633,7 +28633,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28700,7 +28700,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28769,7 +28769,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28836,7 +28836,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28907,7 +28907,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -28978,7 +28978,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29047,7 +29047,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29114,7 +29114,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29187,7 +29187,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29254,7 +29254,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29323,7 +29323,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29392,7 +29392,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29459,7 +29459,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29532,7 +29532,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
@@ -29605,7 +29605,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-09 14:52:19</t>
+          <t>2022-12-09 20:49:59</t>
         </is>
       </c>
     </row>
